--- a/doc/instructionset.xlsx
+++ b/doc/instructionset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kholisa32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EECD6-2789-4220-8009-2798FDE88F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C67244-9EDC-4834-BD81-2B0B2F315064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -378,13 +378,19 @@
     <t>DJNZ Rn, label</t>
   </si>
   <si>
-    <t>DJZ Rn label</t>
-  </si>
-  <si>
     <t>0xA3nnuuuu</t>
   </si>
   <si>
     <t>Transmits a string over the UART (max 256 chars)</t>
+  </si>
+  <si>
+    <t>DJZ Rn, label</t>
+  </si>
+  <si>
+    <t>Bitwise AND, OR, XOR, COMP to be added</t>
+  </si>
+  <si>
+    <t>PUSH and POP to be added</t>
   </si>
 </sst>
 </file>
@@ -567,11 +573,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>86</v>
@@ -1375,6 +1381,16 @@
       </c>
       <c r="C53" s="11"/>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
@@ -1405,52 +1421,62 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
       <c r="B67" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="23" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="24" t="s">
         <v>105</v>
       </c>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="23" t="s">
         <v>105</v>
       </c>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="C71" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/instructionset.xlsx
+++ b/doc/instructionset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kholisa32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C67244-9EDC-4834-BD81-2B0B2F315064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59FE27-56FB-4607-BC8F-FE21C06CA060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -387,10 +387,67 @@
     <t>DJZ Rn, label</t>
   </si>
   <si>
-    <t>Bitwise AND, OR, XOR, COMP to be added</t>
-  </si>
-  <si>
-    <t>PUSH and POP to be added</t>
+    <t>PUSH Rn</t>
+  </si>
+  <si>
+    <t>POP Rn</t>
+  </si>
+  <si>
+    <t>0x20nnuuuu</t>
+  </si>
+  <si>
+    <t>Pushes a register to the stack</t>
+  </si>
+  <si>
+    <t>0x21nnuuuu</t>
+  </si>
+  <si>
+    <t>AND Rn, val</t>
+  </si>
+  <si>
+    <t>OR Rn, val</t>
+  </si>
+  <si>
+    <t>AND Rn1, Rn2</t>
+  </si>
+  <si>
+    <t>OR Rn1, Rn2</t>
+  </si>
+  <si>
+    <t>XOR Rn, val</t>
+  </si>
+  <si>
+    <t>XOR Rn1, Rn2</t>
+  </si>
+  <si>
+    <t>COMP Rn</t>
+  </si>
+  <si>
+    <t>Pops a 32-bit number from the stack and puts into Rn</t>
+  </si>
+  <si>
+    <t>Bitwise complement of a register</t>
+  </si>
+  <si>
+    <t>0x22nnuuuu</t>
+  </si>
+  <si>
+    <t>0x23nnnnuu</t>
+  </si>
+  <si>
+    <t>0x24nnuuuu</t>
+  </si>
+  <si>
+    <t>0x25nnnnuu</t>
+  </si>
+  <si>
+    <t>0x26nnuuuu</t>
+  </si>
+  <si>
+    <t>0x27nnnnuu</t>
+  </si>
+  <si>
+    <t>0x28nnuuuu</t>
   </si>
 </sst>
 </file>
@@ -859,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,102 +1438,200 @@
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="22" t="s">
         <v>120</v>
       </c>
+      <c r="B54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="A56" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>88</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
-      <c r="B63" s="15" t="s">
-        <v>112</v>
+      <c r="B63" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>100</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C71" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B72" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="24" t="s">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="12"/>
+      <c r="B74" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="23" t="s">
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="12"/>
+      <c r="B75" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="23" t="s">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10" t="s">
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C77" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/instructionset.xlsx
+++ b/doc/instructionset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kholisa32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59FE27-56FB-4607-BC8F-FE21C06CA060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73AD4F8-AC42-471F-A518-C176C9F3A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -60,24 +60,15 @@
     <t>0xnnnnnnnn -&gt; val</t>
   </si>
   <si>
-    <t>0xnnnnnnnn -&gt; Addr</t>
-  </si>
-  <si>
     <t>JNE Rn, val, label</t>
   </si>
   <si>
     <t>Compares the value of a register to a 32-bit number, jumps to label if they are not equal</t>
   </si>
   <si>
-    <t>Compares the values of two registers, jumps to label of they are not equal</t>
-  </si>
-  <si>
     <t>Jumps to label (can handle the entire memory)</t>
   </si>
   <si>
-    <t>Jumps to label (can only handle 2^24 = 16.777.216  DWORDS</t>
-  </si>
-  <si>
     <t>Returns from subroutine</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>0x1Fnnuuuu</t>
   </si>
   <si>
-    <t>0xA0nnuuuu</t>
-  </si>
-  <si>
     <t>Displays an image at with its upperleft corner at (Rx, Ry)</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>0xA2nnuuuu</t>
   </si>
   <si>
-    <t>0x0000xxyy -&gt; Addr</t>
-  </si>
-  <si>
     <t>RAND Rn, Rmin, Rmax</t>
   </si>
   <si>
@@ -448,6 +433,222 @@
   </si>
   <si>
     <t>0x28nnuuuu</t>
+  </si>
+  <si>
+    <t>OP-code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>4-byte</t>
+  </si>
+  <si>
+    <t>0xA0nnnnnn</t>
+  </si>
+  <si>
+    <t>DRAWLINE Rx1, Ry1, Rx2, Ry2, Rcolor</t>
+  </si>
+  <si>
+    <t>DRAWRECT Rx1, Ry1, Rx2, Ry2, Rcolor</t>
+  </si>
+  <si>
+    <t>DRAWCIRCLE Rx, Ry, Rrad, Rcolor</t>
+  </si>
+  <si>
+    <t>0xB0nnnnnn</t>
+  </si>
+  <si>
+    <t>0xB1nnnnnn</t>
+  </si>
+  <si>
+    <t>0xB2nnnnnn</t>
+  </si>
+  <si>
+    <t>Jumps to label (can only handle 2^24 = 16.777.216  DWORDS)</t>
+  </si>
+  <si>
+    <t>DISPBGCOLOR Rcolor</t>
+  </si>
+  <si>
+    <t>0xA4nnuuuu</t>
+  </si>
+  <si>
+    <t>0xnnnnuuuu</t>
+  </si>
+  <si>
+    <t>0xnnuuuuuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets the background color as ARGB color, Rcolor </t>
+  </si>
+  <si>
+    <t>Draws a rectangle with center (Rx1, Ry1) and radius Rrad filled with ARGB color, Rcolor</t>
+  </si>
+  <si>
+    <t>DISPSTRING String, Rx, Ry, Rcolor</t>
+  </si>
+  <si>
+    <t>DISPNUMBER Rn, Rx, Ry, Rcolor</t>
+  </si>
+  <si>
+    <t>0xA5nnnnnn</t>
+  </si>
+  <si>
+    <t>0xA6nnnnnn</t>
+  </si>
+  <si>
+    <t>Displays a string starting at (Rx, Ry) with ARGB color, Rcolor</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Displays the value of a register starting at (Rx, Ry) with ARGB color, Rcolor</t>
+  </si>
+  <si>
+    <t>R0-7</t>
+  </si>
+  <si>
+    <t>R8-255</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Genereral purpose</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Input buttons</t>
+  </si>
+  <si>
+    <t>Screen touch bool</t>
+  </si>
+  <si>
+    <t>Screen touch X</t>
+  </si>
+  <si>
+    <t>Screen touch Y</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R0 -&gt; LEFT</t>
+  </si>
+  <si>
+    <t>R1 -&gt; UP</t>
+  </si>
+  <si>
+    <t>R2 -&gt; RIGHT</t>
+  </si>
+  <si>
+    <t>R3 -&gt; DOWN</t>
+  </si>
+  <si>
+    <t>R4 -&gt; A</t>
+  </si>
+  <si>
+    <t>R5 -&gt; B</t>
+  </si>
+  <si>
+    <t>R6 -&gt; X</t>
+  </si>
+  <si>
+    <t>R7 -&gt; Y</t>
+  </si>
+  <si>
+    <t>Draws a rectangle starting at (Rx1, Ry1) with width, height (Rx2, Rxy2) filled with ARGB color, Rcolor</t>
+  </si>
+  <si>
+    <t>Draws a line starting at (Rx1, Ry1) ending at (Rx2, Rxy2) with ARGB color, Rcolor</t>
+  </si>
+  <si>
+    <t>JLT Rn, val, label</t>
+  </si>
+  <si>
+    <t>0x30nnuuuu</t>
+  </si>
+  <si>
+    <t>Compares the value of a register to a 32-bit number, jumps to label if Rn is less than the value</t>
+  </si>
+  <si>
+    <t>JLT Rn1, Rn2, label</t>
+  </si>
+  <si>
+    <t>Compares the values of two registers, jumps to label if they are not equal</t>
+  </si>
+  <si>
+    <t>Compares the values of two registers, jumps to label if Rn1 is less than Rn2</t>
+  </si>
+  <si>
+    <t>JLE Rn, val, label</t>
+  </si>
+  <si>
+    <t>JLE Rn1, Rn2, label</t>
+  </si>
+  <si>
+    <t>JGT Rn, val, label</t>
+  </si>
+  <si>
+    <t>JGT Rn1, Rn2, label</t>
+  </si>
+  <si>
+    <t>0x31nnnnuu</t>
+  </si>
+  <si>
+    <t>0x32nnuuuu</t>
+  </si>
+  <si>
+    <t>0x33nnnnuu</t>
+  </si>
+  <si>
+    <t>0x34nnuuuu</t>
+  </si>
+  <si>
+    <t>0x35nnnnuu</t>
+  </si>
+  <si>
+    <t>0x36nnuuuu</t>
+  </si>
+  <si>
+    <t>0x37nnnnuu</t>
+  </si>
+  <si>
+    <t>JGE Rn, val, label</t>
+  </si>
+  <si>
+    <t>JGE Rn1, Rn2, label</t>
+  </si>
+  <si>
+    <t>Compares the values of two registers, jumps to label if Rn1 is less or equal to Rn2</t>
+  </si>
+  <si>
+    <t>Compares the value of a register to a 32-bit number, jumps to label if Rn is greater than the value</t>
+  </si>
+  <si>
+    <t>Compares the values of two registers, jumps to label if Rn1 is greater than Rn2</t>
+  </si>
+  <si>
+    <t>Compares the value of a register to a 32-bit number, jumps to label if Rn is greater or equal to the value</t>
+  </si>
+  <si>
+    <t>Compares the value of a register to a 32-bit number, jumps to label if Rn is less or equal to the value</t>
+  </si>
+  <si>
+    <t>Compares the values of two registers, jumps to label if Rn1 is greater or equal to Rn2</t>
   </si>
 </sst>
 </file>
@@ -477,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -602,11 +803,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -636,6 +988,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -916,82 +1280,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="106.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="12"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -999,97 +1403,153 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="12"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,37 +1562,37 @@
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1144,24 +1604,24 @@
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,24 +1642,24 @@
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1211,24 +1671,24 @@
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1240,24 +1700,24 @@
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1269,24 +1729,24 @@
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1298,24 +1758,24 @@
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1327,145 +1787,145 @@
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C56" s="8"/>
     </row>
@@ -1478,19 +1938,19 @@
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C59" s="8"/>
     </row>
@@ -1503,19 +1963,19 @@
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C62" s="8"/>
     </row>
@@ -1528,113 +1988,418 @@
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="36"/>
+      <c r="B75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="36"/>
+      <c r="B80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="36"/>
+      <c r="B85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="12"/>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="36"/>
+      <c r="B90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="15" t="s">
+      <c r="C97" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="21" t="s">
+      <c r="C99" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="11"/>
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+      <c r="B101" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="11"/>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="12"/>
+      <c r="B107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+      <c r="B108" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="13"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="12"/>
+      <c r="B111" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="9"/>
+      <c r="B122" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="11"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="9"/>
+      <c r="B124" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>